--- a/data/trans_camb/P43B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43B_R-Provincia-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-16.2890938518272</v>
+        <v>-15.75798275652708</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.91768612148488</v>
+        <v>-11.47989644249211</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.322837088207206</v>
+        <v>0.4886059666066009</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.685455101031487</v>
+        <v>2.165706736367142</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1799263071998764</v>
+        <v>-0.1697840010447198</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1281584766342229</v>
+        <v>-0.123156171839763</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.003305445753635687</v>
+        <v>0.004750675642176619</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03138291316559731</v>
+        <v>0.02428234462791383</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4302080453798088</v>
+        <v>-0.2888577596607779</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.056559641203119</v>
+        <v>-7.120753492107578</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.5386977755702</v>
+        <v>12.31886295465894</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.054925309141796</v>
+        <v>5.934752017773895</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.005824520863448414</v>
+        <v>-0.002655627176503627</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07796023933070088</v>
+        <v>-0.07947029929627331</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1528708610858265</v>
+        <v>0.151685667541094</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06163959957403362</v>
+        <v>0.07162254329041999</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>7.860118014230255</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.939842584374977</v>
+        <v>5.939842584374966</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.001902899588344</v>
+        <v>0.9628902364539227</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.135304050496468</v>
+        <v>-0.9021849143958189</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.23902620412745</v>
+        <v>16.82515201537803</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.29167621849503</v>
+        <v>13.98969328666645</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>0.09292093602837972</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.07021977682804603</v>
+        <v>0.07021977682804591</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.01150831234086479</v>
+        <v>0.009431066993738375</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01074507988074183</v>
+        <v>-0.01015244731822115</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2208565850516813</v>
+        <v>0.2192417687042955</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1980360352592123</v>
+        <v>0.1795867358000329</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>8.794283594160014</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-2.806276644618566</v>
+        <v>-2.806276644618544</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.860489730302054</v>
+        <v>0.5116257975036578</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.32790542028976</v>
+        <v>-10.08221702548206</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.36523326038789</v>
+        <v>16.09084460254854</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.989602159119954</v>
+        <v>5.922814623988355</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.1104268307568704</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.03523746224172698</v>
+        <v>-0.0352374622417267</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02196737349529952</v>
+        <v>0.004951371924734363</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1225939619570795</v>
+        <v>-0.1192496150392861</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2169097619375419</v>
+        <v>0.2147460146992614</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.06686659438623017</v>
+        <v>0.07758529377965816</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.332920403619915</v>
+        <v>-7.91183650142675</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.05643938436434</v>
+        <v>-9.671537501553377</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.761651320844358</v>
+        <v>7.494346997292014</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.556705222793985</v>
+        <v>4.097566143796068</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.07766318545244195</v>
+        <v>-0.08457283549584291</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.106753392305098</v>
+        <v>-0.1027913787491091</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1018962476098129</v>
+        <v>0.08571723520348032</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0420763849148762</v>
+        <v>0.04719597170816441</v>
       </c>
     </row>
     <row r="34">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.6222807598106</v>
+        <v>-10.61413901211338</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-9.551131568807886</v>
+        <v>-9.101144173906489</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.577480388913856</v>
+        <v>5.086850464919878</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.760099355276627</v>
+        <v>3.900942729594102</v>
       </c>
     </row>
     <row r="37">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.110034038976367</v>
+        <v>-0.1081909650899861</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.09900656419759943</v>
+        <v>-0.0948354454340703</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.0397906137445006</v>
+        <v>0.05768268938763494</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.04060507106496097</v>
+        <v>0.04409933055371611</v>
       </c>
     </row>
     <row r="40">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.476782345319995</v>
+        <v>-6.71279861833205</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-25.74264581429814</v>
+        <v>-25.83184983111051</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.891463199578229</v>
+        <v>5.517168452245764</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-13.26062498511029</v>
+        <v>-13.34425386160076</v>
       </c>
     </row>
     <row r="43">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.07411361623616036</v>
+        <v>-0.07579905995683658</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2947211372316074</v>
+        <v>-0.2921880124023604</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.05906326490147546</v>
+        <v>0.06741891185274211</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1621943345860475</v>
+        <v>-0.162174756849842</v>
       </c>
     </row>
     <row r="46">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.482346837081082</v>
+        <v>-4.433297557464747</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.601451619087822</v>
+        <v>0.5365559261961823</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>7.017847058444914</v>
+        <v>6.642346622687834</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>11.97399075439504</v>
+        <v>11.20643881787059</v>
       </c>
     </row>
     <row r="49">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.05226474661563404</v>
+        <v>-0.05215075668201506</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.006749765132041255</v>
+        <v>0.00628604351866778</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.08956122112989333</v>
+        <v>0.08431277970677743</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1496521329062792</v>
+        <v>0.1419359113856092</v>
       </c>
     </row>
     <row r="52">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.5241390547137289</v>
+        <v>-0.5097035368154221</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-6.876064420199443</v>
+        <v>-6.743871627245543</v>
       </c>
     </row>
     <row r="54">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.560695547299728</v>
+        <v>4.515993858739453</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-1.950539689495624</v>
+        <v>-1.727041814972603</v>
       </c>
     </row>
     <row r="55">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.006072045636310137</v>
+        <v>-0.005821337372249446</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.07878146685247593</v>
+        <v>-0.07703264858733661</v>
       </c>
     </row>
     <row r="57">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.05400659777376259</v>
+        <v>0.05390745161271301</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.02207457419550031</v>
+        <v>-0.02050263967727257</v>
       </c>
     </row>
     <row r="58">
